--- a/tests/multialgorithm/fixtures/2_species_a_pair_of_symmetrical_reactions_rates_given_by_reactant_population.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_a_pair_of_symmetrical_reactions_rates_given_by_reactant_population.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,51 +13,68 @@
     <sheet name="Submodels" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Compartments" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Species types" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Concentrations" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Observables" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Functions" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Reactions" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Rate laws" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Biomass components" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Biomass reactions" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Parameters" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Stop conditions" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="References" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="Database references" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Species" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Concentrations" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Observables" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Functions" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Reactions" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Rate laws" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Biomass components" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Biomass reactions" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Parameters" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Stop conditions" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="References" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Database references" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$2</definedName>
-    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Functions!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Model!$A$1:$B$8</definedName>
-    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Observables!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$4</definedName>
-    <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$2</definedName>
-    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Observables!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$4</definedName>
+    <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$2</definedName>
+    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$G$2</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Model!$A$1:$B$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$G$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Submodels!$A$1:$G$2</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$2</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Observables!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Functions!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$4</definedName>
-    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$Q$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">Concentrations!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Observables!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0" vbProcedure="false">Observables!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Functions!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$I$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Rate laws'!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$H$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -69,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="78">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -161,6 +178,18 @@
     <t xml:space="preserve">spec_type_1</t>
   </si>
   <si>
+    <t xml:space="preserve">Species type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spec_type_0[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spec_type_1[c]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Species</t>
   </si>
   <si>
@@ -170,15 +199,9 @@
     <t xml:space="preserve">Units</t>
   </si>
   <si>
-    <t xml:space="preserve">spec_type_0[c]</t>
-  </si>
-  <si>
     <t xml:space="preserve">M</t>
   </si>
   <si>
-    <t xml:space="preserve">spec_type_1[c]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Observables</t>
   </si>
   <si>
@@ -228,12 +251,6 @@
   </si>
   <si>
     <t xml:space="preserve">Coefficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compartment</t>
   </si>
   <si>
     <t xml:space="preserve">Model</t>
@@ -312,7 +329,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -340,6 +357,14 @@
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -391,7 +416,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -401,6 +426,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -634,14 +663,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -651,19 +680,101 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I2"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -674,13 +785,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -689,13 +800,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -715,7 +826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -746,10 +857,10 @@
         <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -771,7 +882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -799,7 +910,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
@@ -821,7 +932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -855,10 +966,10 @@
         <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -932,7 +1043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -960,7 +1071,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
@@ -979,7 +1090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1065,7 +1176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1102,16 +1213,16 @@
         <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>77</v>
@@ -1195,7 +1306,7 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -1421,6 +1532,80 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C6" activeCellId="0" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -1428,7 +1613,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1438,13 +1623,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
@@ -1455,26 +1640,26 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0.0166053904042716</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>0.0166053904042716</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1492,7 +1677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1520,10 +1705,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
@@ -1542,7 +1727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1570,7 +1755,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
@@ -1587,86 +1772,4 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:I2"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/tests/multialgorithm/fixtures/2_species_a_pair_of_symmetrical_reactions_rates_given_by_reactant_population.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_a_pair_of_symmetrical_reactions_rates_given_by_reactant_population.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,62 +19,94 @@
     <sheet name="Functions" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Reactions" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="Rate laws" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Biomass components" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Biomass reactions" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Biomass reactions" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Biomass components" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="Parameters" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="Stop conditions" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="References" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="Database references" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$2</definedName>
     <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$3</definedName>
     <definedName function="false" hidden="true" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
     <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Model!$A$1:$B$8</definedName>
-    <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Observables!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Observables!$A$1:$D$1</definedName>
     <definedName function="false" hidden="true" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$4</definedName>
     <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$3</definedName>
     <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$2</definedName>
     <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$3</definedName>
     <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$G$2</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$F$2</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Model!$A$1:$B$8</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$G$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Submodels!$A$1:$G$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Taxon!$A$1:$A$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Submodels!$A$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">Submodels!$A$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Submodels!$A$1:$F$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Submodels!$A$1:$F$2</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$2</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$E$2</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$3</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">Concentrations!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0" vbProcedure="false">Concentrations!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Observables!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0" vbProcedure="false">Observables!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Concentrations!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Concentrations!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">Observables!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Observables!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Functions!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$I$2</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$I$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$I$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$I$2</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'Rate laws'!$A$1:$G$3</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Rate laws'!$A$1:$G$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Rate laws'!$A$1:$G$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="11" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Biomass reactions'!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Biomass components'!$A$1:$G$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$H$4</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$H$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$H$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$H$4</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$Q$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
     <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="16" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Database references'!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -86,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="77">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -133,121 +165,118 @@
     <t xml:space="preserve">Algorithm</t>
   </si>
   <si>
+    <t xml:space="preserve">Objective function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_submodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compartment c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empirical formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molecular weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spec_type_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spec_type_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spec_type_0[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spec_type_1[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reversible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_reaction_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: spec_type_0 ==&gt; spec_type_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">backward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forward</t>
+  </si>
+  <si>
     <t xml:space="preserve">Biomass reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_submodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compartment c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empirical formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molecular weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spec_type_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spec_type_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compartment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spec_type_0[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spec_type_1[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reversible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_reaction_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: spec_type_0 ==&gt; spec_type_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">backward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forward</t>
   </si>
   <si>
     <t xml:space="preserve">Coefficient</t>
@@ -686,19 +715,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>11</v>
@@ -709,14 +738,14 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="n">
         <f aca="false">TRUE()</f>
@@ -762,19 +791,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
@@ -785,13 +814,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -800,13 +829,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -831,14 +860,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -854,23 +883,17 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1"/>
+  <autoFilter ref="A1:E1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -887,14 +910,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -910,17 +933,23 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
+  <autoFilter ref="A1:G1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -960,16 +989,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>11</v>
@@ -980,7 +1009,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
@@ -991,14 +1020,14 @@
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
@@ -1014,7 +1043,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
@@ -1025,7 +1054,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1071,7 +1100,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
@@ -1118,46 +1147,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>11</v>
@@ -1198,34 +1227,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1304,14 +1333,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1333,30 +1362,26 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G2"/>
+  <autoFilter ref="A1:F2"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1396,7 +1421,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
@@ -1407,10 +1432,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1E-016</v>
@@ -1459,19 +1484,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>11</v>
@@ -1482,7 +1507,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1492,14 +1517,14 @@
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1509,7 +1534,7 @@
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1534,7 +1559,7 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -1544,8 +1569,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1556,10 +1581,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>11</v>
@@ -1570,24 +1595,24 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1623,13 +1648,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
@@ -1640,26 +1665,26 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0.0166053904042716</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>0.0166053904042716</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1682,17 +1707,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
@@ -1705,17 +1730,14 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
+  <autoFilter ref="A1:D1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1755,7 +1777,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>

--- a/tests/multialgorithm/fixtures/2_species_a_pair_of_symmetrical_reactions_rates_given_by_reactant_population.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_a_pair_of_symmetrical_reactions_rates_given_by_reactant_population.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="993" activeTab="3"/>
+    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Submodels!$A$1:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$H$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Initial species concentrations'!$A$1:$E$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Observables!$A$1:$D$1</definedName>
@@ -52,9 +52,9 @@
     <definedName name="_FilterDatabase_0" localSheetId="2">Submodels!$A$1:$F$2</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="2">Submodels!$A$1:$F$2</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="2">Submodels!$A$1:$F$2</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$E$2</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$E$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$E$2</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$H$2</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$H$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$H$2</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">'Species types'!$A$1:$I$3</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="4">'Species types'!$A$1:$I$3</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="4">'Species types'!$A$1:$I$3</definedName>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="117">
   <si>
     <t>Id</t>
   </si>
@@ -174,64 +174,82 @@
     <t>ssa</t>
   </si>
   <si>
+    <t>Biological type</t>
+  </si>
+  <si>
+    <t>Physical type</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>Parent compartment</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Initial volume, distribution</t>
+  </si>
+  <si>
+    <t>Initial volume, mean</t>
+  </si>
+  <si>
+    <t>Initial volume, standard deviation</t>
+  </si>
+  <si>
+    <t>Volume units</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Density units</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>compartment c</t>
+  </si>
+  <si>
+    <t>cellular</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>mass * density</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>init_mass / init_volume</t>
+  </si>
+  <si>
+    <t>g ml^-1</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Initial volume, distribution</t>
-  </si>
-  <si>
-    <t>Initial volume, mean</t>
-  </si>
-  <si>
-    <t>Initial volume, standard deviation</t>
-  </si>
-  <si>
-    <t>Volume units</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Density units</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>compartment c</t>
-  </si>
-  <si>
-    <t>physical_3d</t>
-  </si>
-  <si>
-    <t>mass * density</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>init_mass / init_volume</t>
-  </si>
-  <si>
-    <t>g ml^-1</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
   </si>
   <si>
     <t>spec_type_0</t>
@@ -434,9 +452,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
@@ -471,9 +489,67 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -487,26 +563,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -517,38 +577,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -568,31 +600,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,14 +632,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,37 +660,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,7 +810,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,133 +840,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,6 +851,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -847,6 +883,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -877,15 +928,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -909,165 +951,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1634,22 +1652,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>16</v>
@@ -1666,13 +1684,13 @@
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E2" s="4" t="b">
         <f>TRUE()</f>
@@ -1719,19 +1737,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -1748,42 +1766,42 @@
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="6:7">
@@ -1830,13 +1848,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -1884,13 +1902,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -1942,16 +1960,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>16</v>
@@ -2006,16 +2024,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>16</v>
@@ -2032,72 +2050,72 @@
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D2" s="4">
         <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D3" s="4">
         <v>0.3</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D4" s="4">
         <v>20</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2136,10 +2154,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
@@ -2190,28 +2208,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>16</v>
@@ -2259,46 +2277,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>16</v>
@@ -2437,30 +2455,30 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3:J3"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G$1:G$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1028" width="8.575" style="1"/>
-    <col min="1029" max="16384" width="9" style="1"/>
+    <col min="1" max="1031" width="8.575" style="1"/>
+    <col min="1032" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:14">
+    <row r="1" customHeight="1" spans="1:17">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -2485,55 +2503,68 @@
         <v>33</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" customHeight="1" spans="1:10">
+    <row r="2" s="4" customFormat="1" customHeight="1" spans="1:13">
       <c r="A2" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="10">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="10">
         <v>4.58e-17</v>
       </c>
-      <c r="G2" s="1">
+      <c r="J2" s="1">
         <v>4.58e-18</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="3:3">
-      <c r="C3" s="4"/>
+      <c r="K2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E2">
+  <autoFilter ref="A1:H2">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2566,19 +2597,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -2595,10 +2626,10 @@
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E2" s="4">
         <v>29</v>
@@ -2607,15 +2638,15 @@
         <v>0</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E3" s="4">
         <v>29</v>
@@ -2624,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2665,13 +2696,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -2688,30 +2719,30 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2756,19 +2787,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -2785,36 +2816,36 @@
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="8" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E2" s="4">
         <v>0.0166053904042716</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" customHeight="1" spans="1:7">
       <c r="A3" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E3" s="4">
         <v>0.0166053904042716</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2854,10 +2885,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>16</v>
@@ -2909,10 +2940,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>

--- a/tests/multialgorithm/fixtures/2_species_a_pair_of_symmetrical_reactions_rates_given_by_reactant_population.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_a_pair_of_symmetrical_reactions_rates_given_by_reactant_population.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="3"/>
+    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="119">
   <si>
     <t>Id</t>
   </si>
@@ -321,7 +321,7 @@
     <t>Flux max</t>
   </si>
   <si>
-    <t>Flux units</t>
+    <t>Flux bound units</t>
   </si>
   <si>
     <t>test_reaction_1</t>
@@ -358,6 +358,12 @@
   </si>
   <si>
     <t>k_cat_for * spec_type_0[c]</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
   </si>
   <si>
     <t>Cell size units</t>
@@ -452,10 +458,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -489,51 +495,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,24 +513,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -586,9 +555,33 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -600,9 +593,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,7 +609,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -644,6 +643,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -660,6 +666,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -672,175 +846,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,16 +864,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -883,21 +910,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -919,26 +931,20 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,138 +960,138 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1635,7 +1641,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -1825,22 +1831,22 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S45" sqref="S45"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1857,17 +1863,26 @@
         <v>58</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>21</v>
       </c>
+    </row>
+    <row r="2" customHeight="1" spans="7:7">
+      <c r="G2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1908,7 +1923,7 @@
         <v>58</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -1960,13 +1975,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>62</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>58</v>
@@ -2027,10 +2042,10 @@
         <v>51</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>58</v>
@@ -2050,7 +2065,7 @@
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>82</v>
@@ -2059,12 +2074,12 @@
         <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>82</v>
@@ -2073,12 +2088,12 @@
         <v>0.3</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>82</v>
@@ -2087,35 +2102,35 @@
         <v>20</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2208,7 +2223,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>58</v>
@@ -2217,19 +2232,19 @@
         <v>51</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>16</v>
@@ -2277,46 +2292,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>30</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>16</v>
@@ -2457,7 +2472,7 @@
   <sheetPr/>
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>

--- a/tests/multialgorithm/fixtures/2_species_a_pair_of_symmetrical_reactions_rates_given_by_reactant_population.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_a_pair_of_symmetrical_reactions_rates_given_by_reactant_population.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="11"/>
+    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="123">
   <si>
     <t>Id</t>
   </si>
@@ -186,256 +186,268 @@
     <t>Parent compartment</t>
   </si>
   <si>
+    <t>Mass units</t>
+  </si>
+  <si>
+    <t>Initial volume distribution</t>
+  </si>
+  <si>
+    <t>Initial volume mean</t>
+  </si>
+  <si>
+    <t>Initial volume standard deviation</t>
+  </si>
+  <si>
+    <t>Initial volume units</t>
+  </si>
+  <si>
+    <t>Initial density</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>compartment c</t>
+  </si>
+  <si>
+    <t>cellular</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>density_c</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>spec_type_0</t>
+  </si>
+  <si>
+    <t>CHO</t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>spec_type_1</t>
+  </si>
+  <si>
+    <t>Species type</t>
+  </si>
+  <si>
+    <t>Compartment</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>spec_type_0[c]</t>
+  </si>
+  <si>
+    <t>molecule</t>
+  </si>
+  <si>
+    <t>spec_type_1[c]</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>dist-init-conc-spec_type_0[c]</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>dist-init-conc-spec_type_1[c]</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>volume_c</t>
+  </si>
+  <si>
+    <t>c / density_c</t>
+  </si>
+  <si>
+    <t>Submodel</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>Reversible</t>
+  </si>
+  <si>
+    <t>Flux min</t>
+  </si>
+  <si>
+    <t>Flux max</t>
+  </si>
+  <si>
+    <t>Flux bound units</t>
+  </si>
+  <si>
+    <t>test_reaction_1</t>
+  </si>
+  <si>
+    <t>[c]: spec_type_0 ==&gt; spec_type_1</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>test_reaction_1-backward</t>
+  </si>
+  <si>
+    <t>backward</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>k_cat_rev * spec_type_1[c]</t>
+  </si>
+  <si>
+    <t>s^-1</t>
+  </si>
+  <si>
+    <t>test_reaction_1-forward</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>k_cat_for * spec_type_0[c]</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
+  </si>
+  <si>
+    <t>Cell size units</t>
+  </si>
+  <si>
+    <t>dFBA net reaction</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Standard error</t>
+  </si>
+  <si>
+    <t>carbonExchangeRate</t>
+  </si>
+  <si>
+    <t>mmol gDCW^-1 h^-1</t>
+  </si>
+  <si>
+    <t>fractionDryWeight</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
+    <t>nonCarbonExchangeRate</t>
+  </si>
+  <si>
+    <t>k_cat_rev</t>
+  </si>
+  <si>
+    <t>k_cat</t>
+  </si>
+  <si>
+    <t>molecule^-1 s^-1</t>
+  </si>
+  <si>
+    <t>k_cat_for</t>
+  </si>
+  <si>
+    <t>Avogadro</t>
+  </si>
+  <si>
+    <t>molecule mol^-1</t>
+  </si>
+  <si>
+    <t>g l^-1</t>
+  </si>
+  <si>
+    <t>Taxon</t>
+  </si>
+  <si>
+    <t>Genetic variant</t>
+  </si>
+  <si>
+    <t>Temperature (C)</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Growth media</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Editor</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Publication</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
     <t>Volume</t>
-  </si>
-  <si>
-    <t>Initial volume, distribution</t>
-  </si>
-  <si>
-    <t>Initial volume, mean</t>
-  </si>
-  <si>
-    <t>Initial volume, standard deviation</t>
-  </si>
-  <si>
-    <t>Volume units</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Density units</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>compartment c</t>
-  </si>
-  <si>
-    <t>cellular</t>
-  </si>
-  <si>
-    <t>fluid</t>
-  </si>
-  <si>
-    <t>3d</t>
-  </si>
-  <si>
-    <t>mass * density</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>init_mass / init_volume</t>
-  </si>
-  <si>
-    <t>g ml^-1</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>spec_type_0</t>
-  </si>
-  <si>
-    <t>CHO</t>
-  </si>
-  <si>
-    <t>protein</t>
-  </si>
-  <si>
-    <t>spec_type_1</t>
-  </si>
-  <si>
-    <t>Species type</t>
-  </si>
-  <si>
-    <t>Compartment</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>spec_type_0[c]</t>
-  </si>
-  <si>
-    <t>molecule</t>
-  </si>
-  <si>
-    <t>spec_type_1[c]</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Standard deviation</t>
-  </si>
-  <si>
-    <t>dist-init-conc-spec_type_0[c]</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>dist-init-conc-spec_type_1[c]</t>
-  </si>
-  <si>
-    <t>Expression</t>
-  </si>
-  <si>
-    <t>Submodel</t>
-  </si>
-  <si>
-    <t>Participants</t>
-  </si>
-  <si>
-    <t>Reversible</t>
-  </si>
-  <si>
-    <t>Flux min</t>
-  </si>
-  <si>
-    <t>Flux max</t>
-  </si>
-  <si>
-    <t>Flux bound units</t>
-  </si>
-  <si>
-    <t>test_reaction_1</t>
-  </si>
-  <si>
-    <t>[c]: spec_type_0 ==&gt; spec_type_1</t>
-  </si>
-  <si>
-    <t>Reaction</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>test_reaction_1-backward</t>
-  </si>
-  <si>
-    <t>backward</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>k_cat_rev * spec_type_1[c]</t>
-  </si>
-  <si>
-    <t>s^-1</t>
-  </si>
-  <si>
-    <t>test_reaction_1-forward</t>
-  </si>
-  <si>
-    <t>forward</t>
-  </si>
-  <si>
-    <t>k_cat_for * spec_type_0[c]</t>
-  </si>
-  <si>
-    <t>Reaction rate units</t>
-  </si>
-  <si>
-    <t>Coefficient units</t>
-  </si>
-  <si>
-    <t>Cell size units</t>
-  </si>
-  <si>
-    <t>dFBA net reaction</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Standard error</t>
-  </si>
-  <si>
-    <t>carbonExchangeRate</t>
-  </si>
-  <si>
-    <t>mmol gDCW^-1 h^-1</t>
-  </si>
-  <si>
-    <t>fractionDryWeight</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
-  </si>
-  <si>
-    <t>nonCarbonExchangeRate</t>
-  </si>
-  <si>
-    <t>k_cat_rev</t>
-  </si>
-  <si>
-    <t>k_cat</t>
-  </si>
-  <si>
-    <t>molecule^-1 s^-1</t>
-  </si>
-  <si>
-    <t>k_cat_for</t>
-  </si>
-  <si>
-    <t>Taxon</t>
-  </si>
-  <si>
-    <t>Genetic variant</t>
-  </si>
-  <si>
-    <t>Temperature (C)</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>Growth media</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Editor</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Publication</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>Series</t>
   </si>
   <si>
     <t>Number</t>
@@ -458,10 +470,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -503,11 +515,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -527,6 +538,96 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -540,30 +641,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -579,73 +657,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -666,19 +678,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,25 +816,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,127 +858,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,15 +869,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -899,6 +902,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -910,30 +931,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -957,137 +954,152 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1095,7 +1107,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1112,17 +1124,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1535,7 +1550,7 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1749,13 +1764,13 @@
         <v>79</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -1833,7 +1848,7 @@
   <sheetPr/>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -1843,7 +1858,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="16384" width="9" style="7"/>
+    <col min="1" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:11">
@@ -1857,10 +1872,10 @@
         <v>70</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>88</v>
@@ -1920,7 +1935,7 @@
         <v>70</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>90</v>
@@ -1968,34 +1983,34 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2012,17 +2027,17 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="21.75" style="1" customWidth="1"/>
     <col min="2" max="5" width="8.575" style="1"/>
@@ -2039,7 +2054,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>92</v>
@@ -2048,7 +2063,7 @@
         <v>93</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>16</v>
@@ -2131,6 +2146,34 @@
       </c>
       <c r="F6" s="1" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="6">
+        <v>6.02214075862e+23</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1100</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2169,10 +2212,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
@@ -2226,25 +2269,25 @@
         <v>92</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>16</v>
@@ -2292,46 +2335,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>16</v>
@@ -2470,24 +2513,24 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G$1:G$1048576"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1031" width="8.575" style="1"/>
-    <col min="1032" max="16384" width="9" style="1"/>
+    <col min="1" max="1030" width="8.575" style="1"/>
+    <col min="1031" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:17">
-      <c r="A1" s="9" t="s">
+    <row r="1" customHeight="1" spans="1:16">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2524,58 +2567,52 @@
         <v>35</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" s="4" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" s="4" customFormat="1" customHeight="1" spans="1:13">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="10">
+      <c r="I2" s="6">
         <v>4.58e-17</v>
       </c>
       <c r="J2" s="1">
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2612,19 +2649,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -2641,10 +2678,10 @@
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E2" s="4">
         <v>29</v>
@@ -2653,15 +2690,15 @@
         <v>0</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E3" s="4">
         <v>29</v>
@@ -2670,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2711,13 +2748,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -2734,30 +2771,30 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2802,19 +2839,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -2830,37 +2867,37 @@
       </c>
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A2" s="8" t="s">
-        <v>66</v>
+      <c r="A2" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="4">
         <v>0.0166053904042716</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A3" s="8" t="s">
-        <v>68</v>
+      <c r="A3" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="4">
         <v>0.0166053904042716</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2900,10 +2937,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>16</v>
@@ -2931,19 +2968,21 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1025" width="8.575" style="1"/>
+    <col min="1" max="2" width="8.575" style="1"/>
+    <col min="3" max="3" width="11" style="1" customWidth="1"/>
+    <col min="4" max="1025" width="8.575" style="1"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2955,10 +2994,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
@@ -2971,6 +3010,18 @@
       </c>
       <c r="H1" s="2" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/fixtures/2_species_a_pair_of_symmetrical_reactions_rates_given_by_reactant_population.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_a_pair_of_symmetrical_reactions_rates_given_by_reactant_population.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="14"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -35,12 +35,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Initial species concentrations'!$A$1:$E$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Observables!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Functions!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Functions!$A$1:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$J$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Rate laws'!$A$1:$G$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'dFBA net reactions'!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$H$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$H$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$Q$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">Model!$A$1:$B$8</definedName>
@@ -67,9 +67,9 @@
     <definedName name="_FilterDatabase_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="9">Reactions!$A$1:$I$2</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="9">Reactions!$A$1:$I$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">Reactions!$A$1:$I$2</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="9">Reactions!$A$1:$J$2</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="9">Reactions!$A$1:$J$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">Reactions!$A$1:$J$2</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="10">'Rate laws'!$A$1:$G$3</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="10">'Rate laws'!$A$1:$G$3</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="10">'Rate laws'!$A$1:$G$3</definedName>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="124">
   <si>
     <t>Id</t>
   </si>
@@ -315,6 +315,9 @@
     <t>Reversible</t>
   </si>
   <si>
+    <t>Rate units</t>
+  </si>
+  <si>
     <t>Flux min</t>
   </si>
   <si>
@@ -330,6 +333,9 @@
     <t>[c]: spec_type_0 ==&gt; spec_type_1</t>
   </si>
   <si>
+    <t>s^-1</t>
+  </si>
+  <si>
     <t>Reaction</t>
   </si>
   <si>
@@ -346,9 +352,6 @@
   </si>
   <si>
     <t>k_cat_rev * spec_type_1[c]</t>
-  </si>
-  <si>
-    <t>s^-1</t>
   </si>
   <si>
     <t>test_reaction_1-forward</t>
@@ -470,10 +473,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -507,19 +510,24 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -530,9 +538,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -543,7 +584,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -557,24 +598,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,13 +616,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -633,10 +652,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -646,22 +665,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -678,19 +681,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,25 +783,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,7 +813,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,13 +831,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,49 +843,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,49 +861,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,6 +872,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -898,24 +910,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -969,141 +963,150 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1649,23 +1652,23 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="1" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:12">
+    <row r="1" customHeight="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1691,35 +1694,41 @@
         <v>75</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" customHeight="1" spans="1:5">
+    <row r="2" s="4" customFormat="1" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E2" s="4" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
+      <c r="F2" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I2">
+  <autoFilter ref="A1:J2">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1758,10 +1767,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>49</v>
@@ -1787,42 +1796,42 @@
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="6:7">
@@ -1878,10 +1887,10 @@
         <v>56</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -1938,7 +1947,7 @@
         <v>56</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -1990,13 +1999,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>56</v>
@@ -2029,7 +2038,7 @@
   <sheetPr/>
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2057,10 +2066,10 @@
         <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>56</v>
@@ -2080,86 +2089,86 @@
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D2" s="4">
         <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D3" s="4">
         <v>0.3</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D4" s="4">
         <v>20</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D7" s="6">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
@@ -2167,17 +2176,17 @@
         <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D8" s="1">
         <v>1100</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H6">
+  <autoFilter ref="A1:H8">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2266,7 +2275,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>56</v>
@@ -2275,19 +2284,19 @@
         <v>49</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>16</v>
@@ -2335,46 +2344,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>49</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>16</v>
@@ -3025,7 +3034,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1">
+  <autoFilter ref="A1:D2">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/tests/multialgorithm/fixtures/2_species_a_pair_of_symmetrical_reactions_rates_given_by_reactant_population.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_a_pair_of_symmetrical_reactions_rates_given_by_reactant_population.xlsx
@@ -5,96 +5,97 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="9"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
     <sheet name="Taxon" sheetId="2" r:id="rId2"/>
-    <sheet name="Submodels" sheetId="3" r:id="rId3"/>
-    <sheet name="Compartments" sheetId="4" r:id="rId4"/>
-    <sheet name="Species types" sheetId="5" r:id="rId5"/>
-    <sheet name="Species" sheetId="6" r:id="rId6"/>
-    <sheet name="Initial species concentrations" sheetId="7" r:id="rId7"/>
-    <sheet name="Observables" sheetId="8" r:id="rId8"/>
-    <sheet name="Functions" sheetId="9" r:id="rId9"/>
-    <sheet name="Reactions" sheetId="10" r:id="rId10"/>
-    <sheet name="Rate laws" sheetId="11" r:id="rId11"/>
-    <sheet name="dFBA objectives" sheetId="18" r:id="rId12"/>
-    <sheet name="dFBA net reactions" sheetId="12" r:id="rId13"/>
-    <sheet name="dFBA net species" sheetId="13" r:id="rId14"/>
-    <sheet name="Parameters" sheetId="14" r:id="rId15"/>
-    <sheet name="Stop conditions" sheetId="15" r:id="rId16"/>
-    <sheet name="Evidence" sheetId="19" r:id="rId17"/>
-    <sheet name="References" sheetId="16" r:id="rId18"/>
+    <sheet name="Environment" sheetId="20" r:id="rId3"/>
+    <sheet name="Submodels" sheetId="3" r:id="rId4"/>
+    <sheet name="Compartments" sheetId="4" r:id="rId5"/>
+    <sheet name="Species types" sheetId="5" r:id="rId6"/>
+    <sheet name="Species" sheetId="6" r:id="rId7"/>
+    <sheet name="Initial species concentrations" sheetId="7" r:id="rId8"/>
+    <sheet name="Observables" sheetId="8" r:id="rId9"/>
+    <sheet name="Functions" sheetId="9" r:id="rId10"/>
+    <sheet name="Reactions" sheetId="10" r:id="rId11"/>
+    <sheet name="Rate laws" sheetId="11" r:id="rId12"/>
+    <sheet name="dFBA objectives" sheetId="18" r:id="rId13"/>
+    <sheet name="dFBA net reactions" sheetId="12" r:id="rId14"/>
+    <sheet name="dFBA net species" sheetId="13" r:id="rId15"/>
+    <sheet name="Parameters" sheetId="14" r:id="rId16"/>
+    <sheet name="Stop conditions" sheetId="15" r:id="rId17"/>
+    <sheet name="Evidence" sheetId="19" r:id="rId18"/>
+    <sheet name="References" sheetId="16" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Taxon!$A$1:$A$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Submodels!$A$1:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$H$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Initial species concentrations'!$A$1:$E$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Observables!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Functions!$A$1:$D$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$J$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Rate laws'!$A$1:$G$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$H$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Submodels!$A$1:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$I$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Initial species concentrations'!$A$1:$E$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Observables!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Functions!$A$1:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Reactions!$A$1:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Rate laws'!$A$1:$G$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'dFBA net reactions'!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$H$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$Q$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">Model!$A$1:$B$8</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="1">Taxon!$A$1:$A$6</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="2">Submodels!$A$1:$F$2</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="2">Submodels!$A$1:$F$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="2">Submodels!$A$1:$F$2</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$H$2</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$H$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$H$2</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="4">'Species types'!$A$1:$I$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="4">'Species types'!$A$1:$I$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="4">'Species types'!$A$1:$I$3</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="6">'Initial species concentrations'!$A$1:$E$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="6">'Initial species concentrations'!$A$1:$E$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="6">'Initial species concentrations'!$A$1:$E$3</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="7">Observables!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="7">Observables!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="7">Observables!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="8">Functions!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="9">Reactions!$A$1:$J$2</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="9">Reactions!$A$1:$J$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">Reactions!$A$1:$J$2</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="10">'Rate laws'!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="10">'Rate laws'!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="10">'Rate laws'!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="12">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="12">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="12">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="13">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="13">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="13">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="14">Parameters!$A$1:$H$4</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="14">Parameters!$A$1:$H$4</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="14">Parameters!$A$1:$H$4</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="15">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="15">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="15">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="17">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="17">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="17">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="3">Submodels!$A$1:$F$2</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="3">Submodels!$A$1:$F$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Submodels!$A$1:$F$2</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="4">Compartments!$A$1:$H$2</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="4">Compartments!$A$1:$H$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="4">Compartments!$A$1:$H$2</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="5">'Species types'!$A$1:$I$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="5">'Species types'!$A$1:$I$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="5">'Species types'!$A$1:$I$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="7">'Initial species concentrations'!$A$1:$E$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="7">'Initial species concentrations'!$A$1:$E$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="7">'Initial species concentrations'!$A$1:$E$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="8">Observables!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="8">Observables!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="8">Observables!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="9">Functions!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="9">Functions!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">Functions!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="10">Reactions!$A$1:$J$2</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="10">Reactions!$A$1:$J$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="10">Reactions!$A$1:$J$2</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="11">'Rate laws'!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="11">'Rate laws'!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="11">'Rate laws'!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="15">Parameters!$A$1:$H$4</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="15">Parameters!$A$1:$H$4</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="15">Parameters!$A$1:$H$4</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="18">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="128">
   <si>
     <t>Id</t>
   </si>
@@ -162,6 +163,21 @@
     <t>References</t>
   </si>
   <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Temperature units</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
     <t>Algorithm</t>
   </si>
   <si>
@@ -424,9 +440,6 @@
   </si>
   <si>
     <t>Temperature (C)</t>
-  </si>
-  <si>
-    <t>pH</t>
   </si>
   <si>
     <t>Growth media</t>
@@ -473,10 +486,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -517,30 +530,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,28 +589,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -585,12 +597,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -606,39 +619,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -653,7 +635,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -665,6 +662,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -681,7 +694,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,31 +754,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,19 +772,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,7 +838,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,7 +862,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,91 +874,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,25 +888,31 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -914,17 +933,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -943,23 +962,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -968,149 +981,149 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1142,6 +1155,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1553,7 +1569,7 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1652,9 +1668,78 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="2" width="8.575" style="1"/>
+    <col min="3" max="3" width="11" style="1" customWidth="1"/>
+    <col min="4" max="1025" width="8.575" style="1"/>
+    <col min="1026" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D2">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -1676,31 +1761,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>17</v>
@@ -1711,20 +1796,20 @@
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E2" s="4" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1737,7 +1822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K6"/>
@@ -1767,25 +1852,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>17</v>
@@ -1796,42 +1881,42 @@
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="6:7">
@@ -1852,7 +1937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K2"/>
@@ -1878,25 +1963,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>17</v>
@@ -1914,7 +1999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I1"/>
@@ -1941,19 +2026,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
@@ -1972,7 +2057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J1"/>
@@ -1999,22 +2084,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>17</v>
@@ -2033,7 +2118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J8"/>
@@ -2063,22 +2148,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>17</v>
@@ -2089,100 +2174,100 @@
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D2" s="4">
         <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D3" s="4">
         <v>0.3</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D4" s="4">
         <v>20</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D7" s="6">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D8" s="1">
         <v>1100</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2195,7 +2280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H1"/>
@@ -2221,16 +2306,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>17</v>
@@ -2249,7 +2334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N1"/>
@@ -2275,34 +2360,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>17</v>
@@ -2317,7 +2402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:R1"/>
@@ -2344,46 +2429,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>16</v>
@@ -2462,6 +2547,83 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
+    <col min="3" max="1015" width="8.78333333333333" style="1"/>
+    <col min="1016" max="16384" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2486,13 +2648,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>17</v>
@@ -2503,10 +2665,10 @@
     </row>
     <row r="2" s="4" customFormat="1" ht="15" customHeight="1" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2519,7 +2681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:P2"/>
@@ -2546,40 +2708,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>17</v>
@@ -2590,26 +2752,26 @@
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:12">
       <c r="A2" s="5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I2" s="6">
         <v>4.58e-17</v>
@@ -2618,10 +2780,10 @@
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2634,7 +2796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K3"/>
@@ -2658,25 +2820,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>17</v>
@@ -2687,10 +2849,10 @@
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E2" s="4">
         <v>29</v>
@@ -2699,15 +2861,15 @@
         <v>0</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E3" s="4">
         <v>29</v>
@@ -2716,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2729,7 +2891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I3"/>
@@ -2757,19 +2919,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
@@ -2780,30 +2942,30 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2816,7 +2978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K3"/>
@@ -2848,25 +3010,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>17</v>
@@ -2877,36 +3039,36 @@
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="10" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E2" s="4">
         <v>0.0166053904042716</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" customHeight="1" spans="1:7">
       <c r="A3" s="10" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E3" s="4">
         <v>0.0166053904042716</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2919,7 +3081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H1"/>
@@ -2946,16 +3108,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>17</v>
@@ -2972,73 +3134,4 @@
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="2" width="8.575" style="1"/>
-    <col min="3" max="3" width="11" style="1" customWidth="1"/>
-    <col min="4" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:D2">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/tests/multialgorithm/fixtures/2_species_a_pair_of_symmetrical_reactions_rates_given_by_reactant_population.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_a_pair_of_symmetrical_reactions_rates_given_by_reactant_population.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
+    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="Reactions" sheetId="10" r:id="rId11"/>
     <sheet name="Rate laws" sheetId="11" r:id="rId12"/>
     <sheet name="dFBA objectives" sheetId="18" r:id="rId13"/>
-    <sheet name="dFBA net reactions" sheetId="12" r:id="rId14"/>
-    <sheet name="dFBA net species" sheetId="13" r:id="rId15"/>
+    <sheet name="dFBA objective reactions" sheetId="12" r:id="rId14"/>
+    <sheet name="dFBA objective species" sheetId="13" r:id="rId15"/>
     <sheet name="Parameters" sheetId="14" r:id="rId16"/>
     <sheet name="Stop conditions" sheetId="15" r:id="rId17"/>
     <sheet name="Evidence" sheetId="19" r:id="rId18"/>
@@ -39,8 +39,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Functions!$A$1:$D$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Reactions!$A$1:$J$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Rate laws'!$A$1:$G$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'dFBA objective species'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$H$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$Q$1</definedName>
@@ -74,12 +74,12 @@
     <definedName name="_FilterDatabase_0" localSheetId="11">'Rate laws'!$A$1:$G$3</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="11">'Rate laws'!$A$1:$G$3</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="11">'Rate laws'!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="13">'dFBA net reactions'!$A$1:$E$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="14">'dFBA net species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="13">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="13">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="13">'dFBA objective reactions'!$A$1:$E$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="14">'dFBA objective species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="14">'dFBA objective species'!$A$1:$G$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="14">'dFBA objective species'!$A$1:$G$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="15">Parameters!$A$1:$H$4</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="15">Parameters!$A$1:$H$4</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="15">Parameters!$A$1:$H$4</definedName>
@@ -388,7 +388,7 @@
     <t>Cell size units</t>
   </si>
   <si>
-    <t>dFBA net reaction</t>
+    <t>dFBA objective reaction</t>
   </si>
   <si>
     <t>Value</t>
@@ -487,9 +487,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -523,6 +523,27 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -530,9 +551,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -543,17 +582,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -566,7 +615,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,14 +629,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -595,25 +636,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -621,28 +652,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -657,25 +666,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -694,7 +694,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,55 +850,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,97 +862,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,12 +875,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,6 +885,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -899,6 +923,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -933,41 +977,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -976,150 +985,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2062,12 +2062,12 @@
   <sheetPr/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2549,7 +2549,7 @@
   <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="J13" sqref="J13"/>

--- a/tests/multialgorithm/fixtures/2_species_a_pair_of_symmetrical_reactions_rates_given_by_reactant_population.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_a_pair_of_symmetrical_reactions_rates_given_by_reactant_population.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="14"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="129">
   <si>
     <t>Id</t>
   </si>
@@ -178,6 +178,12 @@
     <t>pH</t>
   </si>
   <si>
+    <t>pH units</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
     <t>Algorithm</t>
   </si>
   <si>
@@ -404,9 +410,6 @@
   </si>
   <si>
     <t>fractionDryWeight</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
   </si>
   <si>
     <t>nonCarbonExchangeRate</t>
@@ -486,10 +489,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -528,9 +531,54 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -538,7 +586,51 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -551,8 +643,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -567,14 +660,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -582,40 +667,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -628,56 +681,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -700,7 +703,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,169 +871,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,6 +915,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -923,41 +935,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -979,147 +956,173 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1694,16 +1697,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>17</v>
@@ -1714,14 +1717,14 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1761,31 +1764,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>17</v>
@@ -1796,20 +1799,20 @@
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E2" s="4" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1852,25 +1855,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>17</v>
@@ -1881,42 +1884,42 @@
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="6:7">
@@ -1963,25 +1966,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>17</v>
@@ -2026,19 +2029,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
@@ -2062,7 +2065,7 @@
   <sheetPr/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2084,22 +2087,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>17</v>
@@ -2148,22 +2151,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>17</v>
@@ -2174,100 +2177,100 @@
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2" s="4">
         <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" customHeight="1" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3" s="4">
         <v>0.3</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" customHeight="1" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D4" s="4">
         <v>20</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D7" s="6">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1">
         <v>1100</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2306,16 +2309,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>17</v>
@@ -2360,34 +2363,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>26</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>17</v>
@@ -2429,46 +2432,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>16</v>
@@ -2547,15 +2550,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J13" sqref="J13"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
@@ -2600,18 +2603,26 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:1">
+    <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:1">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2648,13 +2659,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>17</v>
@@ -2665,10 +2676,10 @@
     </row>
     <row r="2" s="4" customFormat="1" ht="15" customHeight="1" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2708,40 +2719,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>17</v>
@@ -2752,26 +2763,26 @@
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:12">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I2" s="6">
         <v>4.58e-17</v>
@@ -2780,10 +2791,10 @@
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2820,25 +2831,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>17</v>
@@ -2849,10 +2860,10 @@
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E2" s="4">
         <v>29</v>
@@ -2861,15 +2872,15 @@
         <v>0</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="E3" s="4">
         <v>29</v>
@@ -2878,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2919,19 +2930,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>17</v>
@@ -2942,30 +2953,30 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3010,25 +3021,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>17</v>
@@ -3039,36 +3050,36 @@
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E2" s="4">
         <v>0.0166053904042716</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" customHeight="1" spans="1:7">
       <c r="A3" s="10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E3" s="4">
         <v>0.0166053904042716</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3108,16 +3119,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>17</v>

--- a/tests/multialgorithm/fixtures/2_species_a_pair_of_symmetrical_reactions_rates_given_by_reactant_population.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_a_pair_of_symmetrical_reactions_rates_given_by_reactant_population.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
+    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="993" firstSheet="11" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,13 @@
     <sheet name="Parameters" sheetId="14" r:id="rId16"/>
     <sheet name="Stop conditions" sheetId="15" r:id="rId17"/>
     <sheet name="Evidence" sheetId="19" r:id="rId18"/>
-    <sheet name="References" sheetId="16" r:id="rId19"/>
+    <sheet name="Interpretations" sheetId="21" r:id="rId19"/>
+    <sheet name="References" sheetId="16" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Taxon!$A$1:$A$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Submodels!$A$1:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Submodels!$A$1:$G$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$H$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$I$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Initial species concentrations'!$A$1:$E$3</definedName>
@@ -43,16 +44,16 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'dFBA objective species'!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$H$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">References!$A$1:$Q$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">Model!$A$1:$B$8</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="1">Taxon!$A$1:$A$6</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Submodels!$A$1:$F$2</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Submodels!$A$1:$F$2</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Submodels!$A$1:$F$2</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="3">Submodels!$A$1:$G$2</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="3">Submodels!$A$1:$G$2</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Submodels!$A$1:$G$2</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">Compartments!$A$1:$H$2</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="4">Compartments!$A$1:$H$2</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="4">Compartments!$A$1:$H$2</definedName>
@@ -86,16 +87,16 @@
     <definedName name="_FilterDatabase_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="16">'Stop conditions'!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="18">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="18">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="19">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="19">References!$A$1:$Q$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="19">References!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="135">
   <si>
     <t>Id</t>
   </si>
@@ -190,6 +191,9 @@
     <t>Evidence</t>
   </si>
   <si>
+    <t>Interpretations</t>
+  </si>
+  <si>
     <t>test_submodel</t>
   </si>
   <si>
@@ -442,10 +446,25 @@
     <t>Genetic variant</t>
   </si>
   <si>
-    <t>Temperature (C)</t>
-  </si>
-  <si>
     <t>Growth media</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Experiment type</t>
+  </si>
+  <si>
+    <t>Experiment design</t>
+  </si>
+  <si>
+    <t>Measurement method</t>
+  </si>
+  <si>
+    <t>Analysis method</t>
+  </si>
+  <si>
+    <t>Method</t>
   </si>
   <si>
     <t>Title</t>
@@ -489,9 +508,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
@@ -531,17 +550,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,14 +588,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,7 +611,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,15 +633,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,36 +656,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,6 +670,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -667,8 +685,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -676,7 +695,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,7 +716,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,19 +770,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,55 +794,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,49 +818,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,7 +836,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,13 +884,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,21 +907,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -920,21 +924,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -965,6 +954,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -991,114 +1010,114 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1108,25 +1127,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1135,6 +1154,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1563,7 +1585,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="8.575" style="1"/>
-    <col min="2" max="2" width="8.575" style="4"/>
+    <col min="2" max="2" width="8.575" style="5"/>
     <col min="3" max="1025" width="8.575" style="1"/>
     <col min="1026" max="16384" width="9" style="1"/>
   </cols>
@@ -1572,7 +1594,7 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1580,7 +1602,7 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1588,7 +1610,7 @@
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1611,7 +1633,7 @@
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1634,7 +1656,7 @@
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1671,25 +1693,25 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="2" width="8.575" style="1"/>
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
-    <col min="4" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="4" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1697,10 +1719,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
@@ -1709,22 +1731,25 @@
         <v>30</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>50</v>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1740,23 +1765,23 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1026" width="8.575" style="1"/>
-    <col min="1027" max="16384" width="9" style="1"/>
+    <col min="1" max="1027" width="8.575" style="1"/>
+    <col min="1028" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:13">
+    <row r="1" customHeight="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1764,25 +1789,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>16</v>
@@ -1791,28 +1816,31 @@
         <v>30</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A2" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="4" t="s">
+    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="4" t="b">
+      <c r="C2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="5" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>86</v>
+      <c r="F2" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1828,14 +1856,14 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5"/>
@@ -1843,11 +1871,13 @@
     <col min="1" max="1" width="21.75" style="1" customWidth="1"/>
     <col min="2" max="5" width="8.575" style="1"/>
     <col min="6" max="6" width="23" style="1" customWidth="1"/>
-    <col min="7" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="7" max="8" width="8.575" style="1"/>
+    <col min="9" max="10" width="9.125" style="1" customWidth="1"/>
+    <col min="11" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1855,19 +1885,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -1876,50 +1906,53 @@
         <v>30</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" customHeight="1" spans="1:7">
+    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" s="4" customFormat="1" customHeight="1" spans="1:7">
+      <c r="F2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" s="5" customFormat="1" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="C3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>86</v>
+      <c r="E3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="6:7">
@@ -1943,22 +1976,22 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="16384" width="9" style="8"/>
+    <col min="1" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1966,19 +1999,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -1987,9 +2020,12 @@
         <v>30</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2005,23 +2041,23 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="1" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2029,13 +2065,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -2044,9 +2080,12 @@
         <v>30</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2063,51 +2102,54 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="1" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:10">
-      <c r="A1" s="7" t="s">
+    <row r="1" customHeight="1" spans="1:11">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="D1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2124,14 +2166,14 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7"/>
@@ -2139,11 +2181,11 @@
     <col min="1" max="1" width="21.75" style="1" customWidth="1"/>
     <col min="2" max="5" width="8.575" style="1"/>
     <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
-    <col min="7" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="7" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:10">
+    <row r="1" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2151,16 +2193,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>16</v>
@@ -2169,108 +2211,111 @@
         <v>30</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A2" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="4">
+    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="5">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" s="4" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A3" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="4">
+    </row>
+    <row r="3" s="5" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A3" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="5">
         <v>0.3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" customHeight="1" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="4">
+    <row r="4" s="5" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A4" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="5">
         <v>20</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>103</v>
+      <c r="F4" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="6">
+        <v>92</v>
+      </c>
+      <c r="D7" s="7">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D8" s="1">
         <v>1100</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2286,22 +2331,22 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1025" width="8.575"/>
+    <col min="1" max="1026" width="8.575"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:8">
+    <row r="1" ht="15" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2309,10 +2354,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>16</v>
@@ -2321,9 +2366,12 @@
         <v>30</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2340,14 +2388,14 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2355,7 +2403,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:14">
+    <row r="1" customHeight="1" spans="1:22">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2363,16 +2411,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>114</v>
@@ -2381,21 +2429,45 @@
         <v>115</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2408,85 +2480,98 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B45" sqref="B45"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="1" customWidth="1"/>
+    <col min="3" max="1022" width="9.10833333333333" style="1"/>
+    <col min="1023" max="1023" width="9.10833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:18">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="15.1" customHeight="1" spans="1:11">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="I1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="K1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2547,12 +2632,97 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B45" sqref="B45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1025" width="8.575" style="1"/>
+    <col min="1026" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:18">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:Q1">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="A6" sqref="A6:B6"/>
@@ -2563,7 +2733,7 @@
     <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
     <col min="3" max="1015" width="8.78333333333333" style="1"/>
-    <col min="1016" max="16384" width="9" style="12"/>
+    <col min="1016" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
@@ -2635,23 +2805,23 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="1" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:7">
+    <row r="1" ht="15" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2668,22 +2838,25 @@
         <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" ht="15" customHeight="1" spans="1:3">
-      <c r="A2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="2" s="5" customFormat="1" ht="15" customHeight="1" spans="1:3">
+      <c r="A2" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="C2" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F2">
+  <autoFilter ref="A1:G2">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2695,58 +2868,58 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1030" width="8.575" style="1"/>
-    <col min="1031" max="16384" width="9" style="1"/>
+    <col min="1" max="1031" width="8.575" style="1"/>
+    <col min="1032" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:16">
-      <c r="A1" s="11" t="s">
+    <row r="1" customHeight="1" spans="1:17">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>16</v>
@@ -2755,46 +2928,49 @@
         <v>30</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" customHeight="1" spans="1:12">
-      <c r="A2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A2" s="6" t="s">
         <v>44</v>
       </c>
+      <c r="B2" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="6">
+        <v>50</v>
+      </c>
+      <c r="I2" s="7">
         <v>4.58e-17</v>
       </c>
       <c r="J2" s="1">
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2810,20 +2986,20 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
-    <col min="2" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="2" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2831,19 +3007,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -2852,44 +3028,47 @@
         <v>30</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="4" t="s">
+    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="4">
+      <c r="D2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="5">
         <v>29</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>0</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" s="5" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" s="4" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A3" s="5" t="s">
+      <c r="E3" s="5">
+        <v>29</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="4">
-        <v>29</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2905,24 +3084,24 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="6" width="15.6416666666667" style="1"/>
-    <col min="7" max="1025" width="9.10833333333333" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="7" max="1026" width="9.10833333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2930,13 +3109,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -2945,38 +3124,41 @@
         <v>30</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2992,14 +3174,14 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:A3"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
@@ -3009,11 +3191,11 @@
     <col min="3" max="3" width="13.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.575" style="1"/>
     <col min="5" max="5" width="11.5" style="1"/>
-    <col min="6" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="6" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3021,19 +3203,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -3042,44 +3224,47 @@
         <v>30</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A2" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="4">
+    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="5">
         <v>0.0166053904042716</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" s="4" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A3" s="10" t="s">
+      <c r="G2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="4">
+    </row>
+    <row r="3" s="5" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="5">
         <v>0.0166053904042716</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>72</v>
+      <c r="G3" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -3095,23 +3280,23 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="8.575" style="1"/>
-    <col min="1026" max="16384" width="9" style="1"/>
+    <col min="1" max="1026" width="8.575" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3119,10 +3304,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>16</v>
@@ -3130,10 +3315,13 @@
       <c r="F1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/tests/multialgorithm/fixtures/2_species_a_pair_of_symmetrical_reactions_rates_given_by_reactant_population.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_a_pair_of_symmetrical_reactions_rates_given_by_reactant_population.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="993" firstSheet="11" activeTab="16"/>
+    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" firstSheet="2" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="134">
   <si>
     <t>Id</t>
   </si>
@@ -185,7 +185,7 @@
     <t>dimensionless</t>
   </si>
   <si>
-    <t>Algorithm</t>
+    <t>Framework</t>
   </si>
   <si>
     <t>Evidence</t>
@@ -197,7 +197,7 @@
     <t>test_submodel</t>
   </si>
   <si>
-    <t>ssa</t>
+    <t>stochastic_simulation_algorithm</t>
   </si>
   <si>
     <t>Biological type</t>
@@ -236,19 +236,19 @@
     <t>compartment c</t>
   </si>
   <si>
-    <t>cellular</t>
-  </si>
-  <si>
-    <t>fluid</t>
-  </si>
-  <si>
-    <t>3d</t>
+    <t>cellular_compartment</t>
+  </si>
+  <si>
+    <t>fluid_compartment</t>
+  </si>
+  <si>
+    <t>3D_compartment</t>
   </si>
   <si>
     <t>g</t>
   </si>
   <si>
-    <t>normal</t>
+    <t>normal_distribution</t>
   </si>
   <si>
     <t>l</t>
@@ -372,9 +372,6 @@
   </si>
   <si>
     <t>backward</t>
-  </si>
-  <si>
-    <t>other</t>
   </si>
   <si>
     <t>k_cat_rev * spec_type_1[c]</t>
@@ -508,10 +505,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -545,15 +542,24 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -564,10 +570,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -579,16 +594,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,23 +648,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -633,14 +676,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,53 +693,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -716,7 +713,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,91 +869,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,79 +887,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,7 +911,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -923,32 +920,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -984,11 +955,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1007,141 +984,161 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1863,7 +1860,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5"/>
@@ -1925,11 +1922,9 @@
       <c r="D2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>87</v>
@@ -1937,19 +1932,17 @@
     </row>
     <row r="3" s="5" customFormat="1" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>85</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>87</v>
@@ -2008,10 +2001,10 @@
         <v>64</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>16</v>
@@ -2071,7 +2064,7 @@
         <v>64</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -2126,13 +2119,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>68</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>64</v>
@@ -2168,12 +2161,12 @@
   <sheetPr/>
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7"/>
@@ -2196,10 +2189,10 @@
         <v>57</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>64</v>
@@ -2222,24 +2215,18 @@
     </row>
     <row r="2" s="5" customFormat="1" customHeight="1" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D2" s="5">
         <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" customHeight="1" spans="1:6">
       <c r="A3" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D3" s="5">
         <v>0.3</v>
@@ -2250,72 +2237,63 @@
     </row>
     <row r="4" s="5" customFormat="1" customHeight="1" spans="1:6">
       <c r="A4" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D4" s="5">
         <v>20</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="D7" s="7">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="D8" s="1">
         <v>1100</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2333,7 +2311,7 @@
   <sheetPr/>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2411,10 +2389,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>64</v>
@@ -2423,10 +2401,10 @@
         <v>57</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>23</v>
@@ -2441,22 +2419,22 @@
         <v>27</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>16</v>
@@ -2506,10 +2484,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>64</v>
@@ -2518,7 +2496,7 @@
         <v>57</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>16</v>
@@ -2659,46 +2637,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>57</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>16</v>
@@ -2812,16 +2790,16 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1026" width="8.575" style="1"/>
     <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2847,11 +2825,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" ht="15" customHeight="1" spans="1:3">
+    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:3">
       <c r="A2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2875,7 +2853,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -3181,7 +3159,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
@@ -3240,7 +3218,7 @@
       <c r="C2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="5">
@@ -3257,7 +3235,7 @@
       <c r="C3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E3" s="5">

--- a/tests/multialgorithm/fixtures/2_species_a_pair_of_symmetrical_reactions_rates_given_by_reactant_population.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_a_pair_of_symmetrical_reactions_rates_given_by_reactant_population.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" firstSheet="2" activeTab="15"/>
+    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -173,7 +173,7 @@
     <t>Temperature units</t>
   </si>
   <si>
-    <t>C</t>
+    <t>degC</t>
   </si>
   <si>
     <t>pH</t>
@@ -556,25 +556,25 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -586,8 +586,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -595,30 +610,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,10 +624,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -643,6 +636,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -662,14 +662,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -682,17 +690,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -713,13 +713,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,19 +725,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,37 +737,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,7 +761,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,7 +809,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,19 +863,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,49 +881,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,7 +911,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -920,22 +931,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -985,6 +981,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -993,148 +1004,137 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1922,7 +1922,6 @@
       <c r="D2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
         <v>92</v>
       </c>
@@ -1940,7 +1939,6 @@
       <c r="D3" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
         <v>95</v>
       </c>
@@ -2161,7 +2159,7 @@
   <sheetPr/>
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2700,10 +2698,10 @@
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A6" sqref="A6:B6"/>
+      <selection pane="topRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>

--- a/tests/multialgorithm/fixtures/2_species_a_pair_of_symmetrical_reactions_rates_given_by_reactant_population.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_a_pair_of_symmetrical_reactions_rates_given_by_reactant_population.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="993" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" firstSheet="6" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,11 @@
     <sheet name="Evidence" sheetId="19" r:id="rId18"/>
     <sheet name="Interpretations" sheetId="21" r:id="rId19"/>
     <sheet name="References" sheetId="16" r:id="rId20"/>
+    <sheet name="Authors" sheetId="22" r:id="rId21"/>
+    <sheet name="Changes" sheetId="23" r:id="rId22"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Model!$A$1:$B$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Submodels!$A$1:$G$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$H$2</definedName>
@@ -45,9 +47,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$H$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Stop conditions'!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">References!$A$1:$Q$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="0">Model!$A$1:$B$8</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="0">Model!$A$1:$B$8</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="0">Model!$A$1:$B$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="0">Model!$A$1:$B$7</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="1">Taxon!$A$1:$A$6</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="1">Taxon!$A$1:$A$6</definedName>
@@ -96,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="148">
   <si>
     <t>Id</t>
   </si>
@@ -131,342 +133,336 @@
     <t>0.0.1</t>
   </si>
   <si>
+    <t>Time units</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Database references</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>Updated</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Temperature units</t>
+  </si>
+  <si>
+    <t>degC</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>pH units</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
+    <t>Framework</t>
+  </si>
+  <si>
+    <t>Evidence</t>
+  </si>
+  <si>
+    <t>Interpretations</t>
+  </si>
+  <si>
+    <t>test_submodel</t>
+  </si>
+  <si>
+    <t>stochastic_simulation_algorithm</t>
+  </si>
+  <si>
+    <t>Biological type</t>
+  </si>
+  <si>
+    <t>Physical type</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>Parent compartment</t>
+  </si>
+  <si>
+    <t>Mass units</t>
+  </si>
+  <si>
+    <t>Initial volume distribution</t>
+  </si>
+  <si>
+    <t>Initial volume mean</t>
+  </si>
+  <si>
+    <t>Initial volume standard deviation</t>
+  </si>
+  <si>
+    <t>Initial volume units</t>
+  </si>
+  <si>
+    <t>Initial density</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>compartment c</t>
+  </si>
+  <si>
+    <t>cellular_compartment</t>
+  </si>
+  <si>
+    <t>fluid_compartment</t>
+  </si>
+  <si>
+    <t>3D_compartment</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>normal_distribution</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>density_c</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>spec_type_0</t>
+  </si>
+  <si>
+    <t>CHO</t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>spec_type_1</t>
+  </si>
+  <si>
+    <t>Species type</t>
+  </si>
+  <si>
+    <t>Compartment</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>spec_type_0[c]</t>
+  </si>
+  <si>
+    <t>molecule</t>
+  </si>
+  <si>
+    <t>spec_type_1[c]</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>dist-init-conc-spec_type_0[c]</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>dist-init-conc-spec_type_1[c]</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>volume_c</t>
+  </si>
+  <si>
+    <t>c / density_c</t>
+  </si>
+  <si>
+    <t>Submodel</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>Reversible</t>
+  </si>
+  <si>
+    <t>Rate units</t>
+  </si>
+  <si>
+    <t>Flux min</t>
+  </si>
+  <si>
+    <t>Flux max</t>
+  </si>
+  <si>
+    <t>Flux bound units</t>
+  </si>
+  <si>
+    <t>test_reaction_1</t>
+  </si>
+  <si>
+    <t>[c]: spec_type_0 ==&gt; spec_type_1</t>
+  </si>
+  <si>
+    <t>s^-1</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>test_reaction_1-backward</t>
+  </si>
+  <si>
+    <t>backward</t>
+  </si>
+  <si>
+    <t>k_cat_rev * spec_type_1[c]</t>
+  </si>
+  <si>
+    <t>test_reaction_1-forward</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>k_cat_for * spec_type_0[c]</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
+  </si>
+  <si>
+    <t>Cell size units</t>
+  </si>
+  <si>
+    <t>dFBA objective reaction</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Standard error</t>
+  </si>
+  <si>
+    <t>carbonExchangeRate</t>
+  </si>
+  <si>
+    <t>mmol gDCW^-1 h^-1</t>
+  </si>
+  <si>
+    <t>fractionDryWeight</t>
+  </si>
+  <si>
+    <t>nonCarbonExchangeRate</t>
+  </si>
+  <si>
+    <t>k_cat_rev</t>
+  </si>
+  <si>
+    <t>k_cat</t>
+  </si>
+  <si>
+    <t>molecule^-1 s^-1</t>
+  </si>
+  <si>
+    <t>k_cat_for</t>
+  </si>
+  <si>
+    <t>Avogadro</t>
+  </si>
+  <si>
+    <t>molecule mol^-1</t>
+  </si>
+  <si>
+    <t>g l^-1</t>
+  </si>
+  <si>
+    <t>Taxon</t>
+  </si>
+  <si>
+    <t>Genetic variant</t>
+  </si>
+  <si>
+    <t>Growth media</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Experiment type</t>
+  </si>
+  <si>
+    <t>Experiment design</t>
+  </si>
+  <si>
+    <t>Measurement method</t>
+  </si>
+  <si>
+    <t>Analysis method</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
     <t>Author</t>
   </si>
   <si>
-    <t>Author organization</t>
-  </si>
-  <si>
-    <t>Author email</t>
-  </si>
-  <si>
-    <t>Time units</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>Database references</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Created</t>
-  </si>
-  <si>
-    <t>Updated</t>
-  </si>
-  <si>
-    <t>Rank</t>
-  </si>
-  <si>
-    <t>References</t>
-  </si>
-  <si>
-    <t>env</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Temperature units</t>
-  </si>
-  <si>
-    <t>degC</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>pH units</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
-  </si>
-  <si>
-    <t>Framework</t>
-  </si>
-  <si>
-    <t>Evidence</t>
-  </si>
-  <si>
-    <t>Interpretations</t>
-  </si>
-  <si>
-    <t>test_submodel</t>
-  </si>
-  <si>
-    <t>stochastic_simulation_algorithm</t>
-  </si>
-  <si>
-    <t>Biological type</t>
-  </si>
-  <si>
-    <t>Physical type</t>
-  </si>
-  <si>
-    <t>Geometry</t>
-  </si>
-  <si>
-    <t>Parent compartment</t>
-  </si>
-  <si>
-    <t>Mass units</t>
-  </si>
-  <si>
-    <t>Initial volume distribution</t>
-  </si>
-  <si>
-    <t>Initial volume mean</t>
-  </si>
-  <si>
-    <t>Initial volume standard deviation</t>
-  </si>
-  <si>
-    <t>Initial volume units</t>
-  </si>
-  <si>
-    <t>Initial density</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>compartment c</t>
-  </si>
-  <si>
-    <t>cellular_compartment</t>
-  </si>
-  <si>
-    <t>fluid_compartment</t>
-  </si>
-  <si>
-    <t>3D_compartment</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>normal_distribution</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>density_c</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>spec_type_0</t>
-  </si>
-  <si>
-    <t>CHO</t>
-  </si>
-  <si>
-    <t>protein</t>
-  </si>
-  <si>
-    <t>spec_type_1</t>
-  </si>
-  <si>
-    <t>Species type</t>
-  </si>
-  <si>
-    <t>Compartment</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>spec_type_0[c]</t>
-  </si>
-  <si>
-    <t>molecule</t>
-  </si>
-  <si>
-    <t>spec_type_1[c]</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Standard deviation</t>
-  </si>
-  <si>
-    <t>dist-init-conc-spec_type_0[c]</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>dist-init-conc-spec_type_1[c]</t>
-  </si>
-  <si>
-    <t>Expression</t>
-  </si>
-  <si>
-    <t>volume_c</t>
-  </si>
-  <si>
-    <t>c / density_c</t>
-  </si>
-  <si>
-    <t>Submodel</t>
-  </si>
-  <si>
-    <t>Participants</t>
-  </si>
-  <si>
-    <t>Reversible</t>
-  </si>
-  <si>
-    <t>Rate units</t>
-  </si>
-  <si>
-    <t>Flux min</t>
-  </si>
-  <si>
-    <t>Flux max</t>
-  </si>
-  <si>
-    <t>Flux bound units</t>
-  </si>
-  <si>
-    <t>test_reaction_1</t>
-  </si>
-  <si>
-    <t>[c]: spec_type_0 ==&gt; spec_type_1</t>
-  </si>
-  <si>
-    <t>s^-1</t>
-  </si>
-  <si>
-    <t>Reaction</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>test_reaction_1-backward</t>
-  </si>
-  <si>
-    <t>backward</t>
-  </si>
-  <si>
-    <t>k_cat_rev * spec_type_1[c]</t>
-  </si>
-  <si>
-    <t>test_reaction_1-forward</t>
-  </si>
-  <si>
-    <t>forward</t>
-  </si>
-  <si>
-    <t>k_cat_for * spec_type_0[c]</t>
-  </si>
-  <si>
-    <t>Reaction rate units</t>
-  </si>
-  <si>
-    <t>Coefficient units</t>
-  </si>
-  <si>
-    <t>Cell size units</t>
-  </si>
-  <si>
-    <t>dFBA objective reaction</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Standard error</t>
-  </si>
-  <si>
-    <t>carbonExchangeRate</t>
-  </si>
-  <si>
-    <t>mmol gDCW^-1 h^-1</t>
-  </si>
-  <si>
-    <t>fractionDryWeight</t>
-  </si>
-  <si>
-    <t>nonCarbonExchangeRate</t>
-  </si>
-  <si>
-    <t>k_cat_rev</t>
-  </si>
-  <si>
-    <t>k_cat</t>
-  </si>
-  <si>
-    <t>molecule^-1 s^-1</t>
-  </si>
-  <si>
-    <t>k_cat_for</t>
-  </si>
-  <si>
-    <t>Avogadro</t>
-  </si>
-  <si>
-    <t>molecule mol^-1</t>
-  </si>
-  <si>
-    <t>g l^-1</t>
-  </si>
-  <si>
-    <t>Taxon</t>
-  </si>
-  <si>
-    <t>Genetic variant</t>
-  </si>
-  <si>
-    <t>Growth media</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>Experiment type</t>
-  </si>
-  <si>
-    <t>Experiment design</t>
-  </si>
-  <si>
-    <t>Measurement method</t>
-  </si>
-  <si>
-    <t>Analysis method</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
     <t>Editor</t>
   </si>
   <si>
@@ -498,6 +494,54 @@
   </si>
   <si>
     <t>Pages</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Middle name</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>ORCID</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Target type</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Reason type</t>
+  </si>
+  <si>
+    <t>Intention</t>
+  </si>
+  <si>
+    <t>Intention type</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -505,10 +549,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -542,24 +586,18 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -578,6 +616,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -586,26 +631,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -624,31 +667,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -656,13 +691,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -677,9 +705,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -690,11 +718,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -713,7 +757,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,13 +787,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,7 +805,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,37 +829,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,79 +847,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,13 +865,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,50 +948,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -962,21 +962,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -999,146 +984,205 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1571,12 +1615,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B1" sqref="B$1:B$1048576"/>
+      <selection pane="topRight" activeCell="A8" sqref="$A8:$XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
@@ -1634,26 +1678,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:1">
+    <row r="8" customHeight="1" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" customHeight="1" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1662,23 +1706,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:1">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:1">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:1">
-      <c r="A15" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:B15">
+  <autoFilter ref="A1:B12">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1716,37 +1745,37 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1786,58 +1815,58 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="1" customHeight="1" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E2" s="5" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1882,68 +1911,68 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="6:7">
@@ -1990,34 +2019,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="7:7">
@@ -2056,28 +2085,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2117,31 +2146,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2184,114 +2213,114 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="1" customHeight="1" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D2" s="5">
         <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" customHeight="1" spans="1:6">
       <c r="A3" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D3" s="5">
         <v>0.3</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" s="5" customFormat="1" customHeight="1" spans="1:6">
       <c r="A4" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D4" s="5">
         <v>20</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D7" s="7">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D8" s="1">
         <v>1100</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2330,25 +2359,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2387,64 +2416,64 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="P1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="U1" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2482,31 +2511,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="3:4">
@@ -2580,22 +2609,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2635,52 +2664,52 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="Q1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2693,12 +2722,151 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:13">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:16">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="B5" sqref="B5"/>
@@ -2717,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:1">
@@ -2727,7 +2895,7 @@
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
         <v>37</v>
@@ -2735,15 +2903,15 @@
     </row>
     <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1">
         <v>7.75</v>
@@ -2751,25 +2919,25 @@
     </row>
     <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2805,30 +2973,30 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="1" customHeight="1" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2868,73 +3036,73 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="1" customHeight="1" spans="1:12">
       <c r="A2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I2" s="7">
         <v>4.58e-17</v>
@@ -2943,10 +3111,10 @@
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2983,42 +3151,42 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E2" s="5">
         <v>29</v>
@@ -3027,15 +3195,15 @@
         <v>0</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" customHeight="1" spans="1:7">
       <c r="A3" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E3" s="5">
         <v>29</v>
@@ -3044,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -3085,56 +3253,56 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3179,68 +3347,68 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="1" customHeight="1" spans="1:7">
       <c r="A2" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E2" s="5">
         <v>0.0166053904042716</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" customHeight="1" spans="1:7">
       <c r="A3" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E3" s="5">
         <v>0.0166053904042716</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3280,25 +3448,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/fixtures/2_species_a_pair_of_symmetrical_reactions_rates_given_by_reactant_population.xlsx
+++ b/tests/multialgorithm/fixtures/2_species_a_pair_of_symmetrical_reactions_rates_given_by_reactant_population.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" firstSheet="6" activeTab="21"/>
+    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" firstSheet="12" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="149">
   <si>
     <t>Id</t>
   </si>
@@ -457,6 +457,9 @@
     <t>Method</t>
   </si>
   <si>
+    <t>Authors</t>
+  </si>
+  <si>
     <t>Title</t>
   </si>
   <si>
@@ -523,6 +526,9 @@
     <t>Target</t>
   </si>
   <si>
+    <t>Target submodel</t>
+  </si>
+  <si>
     <t>Target type</t>
   </si>
   <si>
@@ -536,9 +542,6 @@
   </si>
   <si>
     <t>Intention type</t>
-  </si>
-  <si>
-    <t>Authors</t>
   </si>
   <si>
     <t>Date</t>
@@ -549,10 +552,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -586,16 +589,36 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,10 +632,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -624,36 +656,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -662,6 +673,29 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -676,38 +710,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -726,17 +731,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -757,31 +760,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,7 +790,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,13 +808,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,91 +922,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,13 +940,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,17 +954,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -981,15 +1002,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1001,30 +1013,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1048,141 +1036,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2485,14 +2488,14 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2503,7 +2506,7 @@
     <col min="1023" max="1023" width="9.10833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:11">
+    <row r="1" ht="15.1" customHeight="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2536,6 +2539,9 @@
       </c>
       <c r="K1" s="3" t="s">
         <v>18</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="3:4">
@@ -2664,46 +2670,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>54</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>13</v>
@@ -2748,31 +2754,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>13</v>
@@ -2790,14 +2796,14 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2805,7 +2811,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:16">
+    <row r="1" customHeight="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2816,43 +2822,46 @@
         <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="P1" s="2" t="s">
-        <v>147</v>
+        <v>119</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
